--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\Hackathon2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7529BE8A-F7BF-446D-8DC6-2B6AED80F0BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3D61F1-DC0D-436B-9BD3-01A467A10770}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="8028" xr2:uid="{738EDDE7-7439-4DBE-92CE-E9EDFA07C212}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="7584" xr2:uid="{4BABB452-5E50-47FA-BA7C-9977ED0EDAD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848385E4-3FC0-44FA-BD07-B4E72A617E73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67800D9-467C-48E1-A6A1-ABDD4F11ADD4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
